--- a/solutions/aws/ai/intelligent-document-processing/delivery/requirements.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/delivery/requirements.xlsx
@@ -207,10 +207,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -218,62 +218,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +539,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -619,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>
@@ -638,7 +582,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -661,9 +605,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/solutions/aws/ai/intelligent-document-processing/delivery/requirements.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/delivery/requirements.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 13, 2025</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>REQ-005</t>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>REQ-006</t>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>REQ-007</t>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>REQ-008</t>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>REQ-009</t>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>REQ-010</t>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>REQ-011</t>
@@ -1491,7 +1491,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>REQ-012</t>
@@ -1561,7 +1561,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>REQ-013</t>
@@ -1629,7 +1629,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>REQ-014</t>
@@ -1699,7 +1699,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>REQ-015</t>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>REQ-016</t>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>REQ-017</t>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>REQ-018</t>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>REQ-019</t>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>REQ-020</t>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1">
+    <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>REQ-021</t>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1">
+    <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>REQ-022</t>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1">
+    <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
           <t>REQ-023</t>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1">
+    <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>REQ-024</t>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1">
+    <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>REQ-025</t>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1">
+    <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>REQ-026</t>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="26" customHeight="1">
+    <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
           <t>REQ-027</t>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="26" customHeight="1">
+    <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>REQ-028</t>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="26" customHeight="1">
+    <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
           <t>REQ-029</t>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="26" customHeight="1">
+    <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
           <t>REQ-030</t>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="26" customHeight="1">
+    <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
           <t>REQ-031</t>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="26" customHeight="1">
+    <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
           <t>REQ-032</t>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="26" customHeight="1">
+    <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
           <t>REQ-033</t>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="26" customHeight="1">
+    <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>REQ-034</t>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="26" customHeight="1">
+    <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
           <t>REQ-035</t>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="26" customHeight="1">
+    <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
           <t>REQ-036</t>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="26" customHeight="1">
+    <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
           <t>REQ-037</t>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="26" customHeight="1">
+    <row r="39">
       <c r="A39" s="7" t="inlineStr">
         <is>
           <t>REQ-038</t>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="26" customHeight="1">
+    <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
           <t>REQ-039</t>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="26" customHeight="1">
+    <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
           <t>REQ-040</t>
@@ -3553,7 +3553,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="26" customHeight="1">
+    <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
           <t>REQ-041</t>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="26" customHeight="1">
+    <row r="43">
       <c r="A43" s="7" t="inlineStr">
         <is>
           <t>REQ-042</t>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="26" customHeight="1">
+    <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
           <t>REQ-043</t>
@@ -3761,7 +3761,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="26" customHeight="1">
+    <row r="45">
       <c r="A45" s="7" t="inlineStr">
         <is>
           <t>REQ-044</t>
@@ -3829,7 +3829,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="26" customHeight="1">
+    <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
           <t>REQ-045</t>
@@ -3899,7 +3899,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="26" customHeight="1">
+    <row r="47">
       <c r="A47" s="7" t="inlineStr">
         <is>
           <t>REQ-046</t>
@@ -3967,7 +3967,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="26" customHeight="1">
+    <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
           <t>REQ-047</t>
@@ -4037,7 +4037,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="26" customHeight="1">
+    <row r="49">
       <c r="A49" s="7" t="inlineStr">
         <is>
           <t>REQ-048</t>
@@ -4107,7 +4107,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="26" customHeight="1">
+    <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
           <t>REQ-049</t>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="26" customHeight="1">
+    <row r="51">
       <c r="A51" s="7" t="inlineStr">
         <is>
           <t>REQ-050</t>
@@ -4251,7 +4251,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="26" customHeight="1">
+    <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
           <t>REQ-051</t>
@@ -4323,7 +4323,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="26" customHeight="1">
+    <row r="53">
       <c r="A53" s="7" t="inlineStr">
         <is>
           <t>REQ-052</t>
@@ -4393,7 +4393,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="26" customHeight="1">
+    <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
           <t>REQ-053</t>
@@ -4463,7 +4463,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="26" customHeight="1">
+    <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
           <t>REQ-054</t>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="26" customHeight="1">
+    <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
           <t>REQ-055</t>

--- a/solutions/aws/ai/intelligent-document-processing/delivery/requirements.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/delivery/requirements.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 13, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
